--- a/Book11.xlsx
+++ b/Book11.xlsx
@@ -28,7 +28,7 @@
     <t>Header_Text</t>
   </si>
   <si>
-    <t>Lijo</t>
+    <t>Amy</t>
   </si>
   <si>
     <t>https://cdn.anuhealthyfood.in/images/missyourorders.png</t>
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +53,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -91,25 +97,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="48.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="48.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="11.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -432,7 +444,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -440,25 +452,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
-        <v>919741391700</v>
+      <c r="A2" s="4">
+        <v>16132923477</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>919606800781</v>
+      <c r="A3" s="4">
+        <v>16132823478</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
